--- a/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/54.expressoes_com_horas/46+-+Expressões+com+Horas.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/54.expressoes_com_horas/46+-+Expressões+com+Horas.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\4.basico_expressoes_e_funcoes\54.expressoes_com_horas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC0B10-E5F7-4B49-9C67-203617DD8E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9FD8E-9D7D-434A-9C9A-6BE82174FD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Expressões Horas" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha de Ponto" sheetId="3" r:id="rId2"/>
-    <sheet name="Informações" sheetId="2" r:id="rId3"/>
+    <sheet name="Expressões Horas 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Folha de Ponto" sheetId="3" r:id="rId3"/>
+    <sheet name="Informações" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Material Curso de Excel do Básico ao Expert 2022</t>
   </si>
@@ -143,11 +136,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="hh\ &quot;Hrs&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -449,7 +443,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -557,6 +551,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -615,6 +624,55 @@
         <a:xfrm>
           <a:off x="5894406" y="1312049"/>
           <a:ext cx="1414072" cy="392432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1009791</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>455363</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFD471F-F7D1-4A7D-A51B-C0ACC9E8029F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5818011" y="1296809"/>
+          <a:ext cx="1388672" cy="384226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,31 +983,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
         <v>7</v>
       </c>
@@ -957,8 +1015,8 @@
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -975,7 +1033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
@@ -985,9 +1043,12 @@
       <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E8" s="14">
+        <f>C8+"09:00"</f>
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
@@ -997,9 +1058,12 @@
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E9" s="17">
+        <f>C9+"10:00"</f>
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
@@ -1009,9 +1073,12 @@
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E10" s="14">
+        <f>C10+"05:00"</f>
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1021,9 +1088,12 @@
       <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E11" s="40">
+        <f>C11+"04:00"</f>
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
@@ -1033,9 +1103,12 @@
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="41">
+        <f>C12+"13:00"</f>
+        <v>1.2326388888888888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1118,10 @@
       <c r="D13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="21">
+        <f>C13+"07:00"</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1059,22 +1135,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AE743D-DAD5-4E89-9AE5-E2B058D5A65B}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="14">
+        <f>C8+D8</f>
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="D9" s="43">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" ref="E9:E13" si="0">C9+D9</f>
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.6875</v>
+      </c>
+      <c r="D11" s="43">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>1.2326388888888888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD2"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5938E19-B574-44EE-918B-83AABA058523}">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F2" s="33" t="s">
         <v>32</v>
       </c>
@@ -1084,8 +1317,8 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -1100,8 +1333,8 @@
       <c r="J4" s="36"/>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F6" s="25" t="s">
         <v>30</v>
       </c>
@@ -1121,9 +1354,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F7" s="28">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="G7" s="29">
         <v>0.33333333333333331</v>
@@ -1135,13 +1368,16 @@
         <v>0.5</v>
       </c>
       <c r="J7" s="29">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K7" s="30">
+        <f>(H7-G7)+(J7-I7)</f>
+        <v>0.22916666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F8" s="22">
-        <v>44349</v>
+        <v>44714</v>
       </c>
       <c r="G8" s="23">
         <v>0.33333333333333331</v>
@@ -1155,11 +1391,14 @@
       <c r="J8" s="23">
         <v>0.70138888888888884</v>
       </c>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K8" s="24">
+        <f t="shared" ref="K8:K36" si="0">(H8-G8)+(J8-I8)</f>
+        <v>0.32638888888888884</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F9" s="28">
-        <v>44350</v>
+        <v>44715</v>
       </c>
       <c r="G9" s="29">
         <v>0.33333333333333331</v>
@@ -1173,11 +1412,14 @@
       <c r="J9" s="29">
         <v>0.625</v>
       </c>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K9" s="30">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F10" s="22">
-        <v>44351</v>
+        <v>44716</v>
       </c>
       <c r="G10" s="23">
         <v>0.33333333333333331</v>
@@ -1191,11 +1433,14 @@
       <c r="J10" s="23">
         <v>0.625</v>
       </c>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F11" s="28">
-        <v>44352</v>
+        <v>44717</v>
       </c>
       <c r="G11" s="29">
         <v>0.33333333333333331</v>
@@ -1209,9 +1454,12 @@
       <c r="J11" s="29">
         <v>0.75</v>
       </c>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K11" s="30">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
@@ -1219,9 +1467,9 @@
       <c r="J12" s="23"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F13" s="28">
-        <v>44354</v>
+        <v>44719</v>
       </c>
       <c r="G13" s="29">
         <v>0.33333333333333331</v>
@@ -1235,11 +1483,14 @@
       <c r="J13" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K13" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F14" s="22">
-        <v>44355</v>
+        <v>44720</v>
       </c>
       <c r="G14" s="23">
         <v>0.33333333333333331</v>
@@ -1253,11 +1504,14 @@
       <c r="J14" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K14" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F15" s="28">
-        <v>44356</v>
+        <v>44721</v>
       </c>
       <c r="G15" s="29">
         <v>0.33333333333333331</v>
@@ -1271,11 +1525,14 @@
       <c r="J15" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K15" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F16" s="22">
-        <v>44357</v>
+        <v>44722</v>
       </c>
       <c r="G16" s="23">
         <v>0.33333333333333331</v>
@@ -1289,11 +1546,14 @@
       <c r="J16" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K16" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F17" s="28">
-        <v>44358</v>
+        <v>44723</v>
       </c>
       <c r="G17" s="29">
         <v>0.33333333333333331</v>
@@ -1307,11 +1567,14 @@
       <c r="J17" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K17" s="30"/>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K17" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F18" s="22">
-        <v>44359</v>
+        <v>44724</v>
       </c>
       <c r="G18" s="23">
         <v>0.33333333333333331</v>
@@ -1325,9 +1588,12 @@
       <c r="J18" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K18" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -1335,9 +1601,9 @@
       <c r="J19" s="29"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F20" s="22">
-        <v>44361</v>
+        <v>44726</v>
       </c>
       <c r="G20" s="23">
         <v>0.33333333333333331</v>
@@ -1351,11 +1617,14 @@
       <c r="J20" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F21" s="28">
-        <v>44362</v>
+        <v>44727</v>
       </c>
       <c r="G21" s="29">
         <v>0.33333333333333331</v>
@@ -1369,11 +1638,14 @@
       <c r="J21" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K21" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F22" s="22">
-        <v>44363</v>
+        <v>44728</v>
       </c>
       <c r="G22" s="23">
         <v>0.33333333333333331</v>
@@ -1387,11 +1659,14 @@
       <c r="J22" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K22" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F23" s="28">
-        <v>44364</v>
+        <v>44729</v>
       </c>
       <c r="G23" s="29">
         <v>0.33333333333333331</v>
@@ -1405,11 +1680,14 @@
       <c r="J23" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K23" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F24" s="22">
-        <v>44365</v>
+        <v>44730</v>
       </c>
       <c r="G24" s="23">
         <v>0.33333333333333331</v>
@@ -1423,11 +1701,14 @@
       <c r="J24" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K24" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F25" s="28">
-        <v>44366</v>
+        <v>44731</v>
       </c>
       <c r="G25" s="29">
         <v>0.33333333333333331</v>
@@ -1441,9 +1722,12 @@
       <c r="J25" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K25" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F26" s="22"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
@@ -1451,9 +1735,9 @@
       <c r="J26" s="23"/>
       <c r="K26" s="24"/>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F27" s="28">
-        <v>44368</v>
+        <v>44733</v>
       </c>
       <c r="G27" s="29">
         <v>0.33333333333333331</v>
@@ -1467,11 +1751,14 @@
       <c r="J27" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K27" s="30"/>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K27" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F28" s="22">
-        <v>44369</v>
+        <v>44734</v>
       </c>
       <c r="G28" s="23">
         <v>0.33333333333333331</v>
@@ -1485,11 +1772,14 @@
       <c r="J28" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K28" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F29" s="28">
-        <v>44370</v>
+        <v>44735</v>
       </c>
       <c r="G29" s="29">
         <v>0.33333333333333331</v>
@@ -1503,11 +1793,14 @@
       <c r="J29" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K29" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F30" s="22">
-        <v>44371</v>
+        <v>44736</v>
       </c>
       <c r="G30" s="23">
         <v>0.33333333333333331</v>
@@ -1521,11 +1814,14 @@
       <c r="J30" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F31" s="28">
-        <v>44372</v>
+        <v>44737</v>
       </c>
       <c r="G31" s="29">
         <v>0.33333333333333331</v>
@@ -1539,11 +1835,14 @@
       <c r="J31" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K31" s="30"/>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K31" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F32" s="22">
-        <v>44373</v>
+        <v>44738</v>
       </c>
       <c r="G32" s="23">
         <v>0.33333333333333331</v>
@@ -1557,9 +1856,12 @@
       <c r="J32" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K32" s="24"/>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K32" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F33" s="28"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
@@ -1567,9 +1869,9 @@
       <c r="J33" s="29"/>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F34" s="22">
-        <v>44375</v>
+        <v>44740</v>
       </c>
       <c r="G34" s="23">
         <v>0.33333333333333331</v>
@@ -1583,11 +1885,14 @@
       <c r="J34" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K34" s="24"/>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K34" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F35" s="28">
-        <v>44376</v>
+        <v>44741</v>
       </c>
       <c r="G35" s="29">
         <v>0.33333333333333331</v>
@@ -1601,11 +1906,14 @@
       <c r="J35" s="29">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K35" s="30"/>
-    </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="K35" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F36" s="22">
-        <v>44377</v>
+        <v>44742</v>
       </c>
       <c r="G36" s="23">
         <v>0.33333333333333331</v>
@@ -1619,9 +1927,12 @@
       <c r="J36" s="23">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="37" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F37" s="38" t="s">
         <v>25</v>
       </c>
@@ -1629,7 +1940,10 @@
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
       <c r="J37" s="39"/>
-      <c r="K37" s="31"/>
+      <c r="K37" s="31">
+        <f>SUM(K7:K36)</f>
+        <v>8.4305555555555536</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1642,7 +1956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4B1D2F-C6B2-47F1-A594-6C85C8DA4CAF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1650,29 +1964,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1680,7 +1994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1688,18 +2002,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
